--- a/biology/Botanique/Picea_glehnii/Picea_glehnii.xlsx
+++ b/biology/Botanique/Picea_glehnii/Picea_glehnii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épicéa de Sakhaline
-Picea glehnii est une espèce de conifère de la famille des Pinacées[1]. Ce conifère est originaire de l'Asie du Nord-Est.
+Picea glehnii est une espèce de conifère de la famille des Pinacées. Ce conifère est originaire de l'Asie du Nord-Est.
 </t>
         </is>
       </c>
@@ -514,11 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensions
-Picea glehnii peut mesurer jusqu'à 30 mètres de haut, voire 40 mètres de haut[2] occasionnellement et son tronc peut atteindre 1,6 mètre de diamètre.
-Caractères botaniques
-Son port est conique.
-L'écorce est de couleur brun-gris, écailleuse et fendillée verticalement[3].
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea glehnii peut mesurer jusqu'à 30 mètres de haut, voire 40 mètres de haut occasionnellement et son tronc peut atteindre 1,6 mètre de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Picea_glehnii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Picea_glehnii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractères botaniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son port est conique.
+L'écorce est de couleur brun-gris, écailleuse et fendillée verticalement.
 Les aiguilles sont persistantes, vert glauque sur ses deux côtés et mesurent 8 à 12 mm de long pour 1 à 1,5 mm de large. L'apex des aiguilles est aigu ou mucroné mais non piquant.
 Les cônes mâles sont brun-rougeâtre, cylindriques, d'une longueur allant de 7 à 14 mm pour une largeur de 4 mm.
 Les cônes femelles sont ovoïdes allongés, d'abord violets puis devant brun-grisâtre, mesurant de 3 à 8 cm de longueur pour 2 à 2,5 cm de largeur.
@@ -526,37 +578,77 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Picea_glehnii</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Picea_glehnii</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribution
-Le Picea glehnii est présent naturellement en Russie (plus précisément en Sakhaline et dans les îles Kouriles) et au Japon (plus précisément au nord du Hondo et à Hokkaido)[4]. Il a été introduit en Europe en 1877. 
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Picea glehnii est présent naturellement en Russie (plus précisément en Sakhaline et dans les îles Kouriles) et au Japon (plus précisément au nord du Hondo et à Hokkaido). Il a été introduit en Europe en 1877. 
 Sa croissance est lente et il sait pousser jusqu'à une altitude d'environ 1650 mètres.
-Exigences
-Il est rustique jusqu'en zone 6, c'est-à-dire de -17 à -23 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Picea_glehnii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Picea_glehnii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Exigences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est rustique jusqu'en zone 6, c'est-à-dire de -17 à -23 °C.
 Il peut pousser facilement dans tous types de terres.
 </t>
         </is>
